--- a/data/trans_dic/P56$familiarvive-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1222541477646048</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1774004503869714</v>
+        <v>0.1774004503869715</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1974696354146541</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05342881964060429</v>
+        <v>0.0536959538678172</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05502994385741002</v>
+        <v>0.0558607364971072</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04164766607226926</v>
+        <v>0.04068007197101529</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02610259537363302</v>
+        <v>0.02634320007096683</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03344503838794646</v>
+        <v>0.03373811117997638</v>
       </c>
     </row>
     <row r="6">
@@ -749,35 +749,35 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.5828115833452393</v>
+        <v>0.5836491650393438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3914131889255844</v>
+        <v>0.3383792099400625</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3753707697024318</v>
+        <v>0.4205232001953907</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3897234596460589</v>
+        <v>0.3575453760541722</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4403418594475362</v>
+        <v>0.4208895571930491</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6423715030751779</v>
+        <v>0.6954625945532722</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3188598613619883</v>
+        <v>0.3495555180184329</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2705613833920446</v>
+        <v>0.2665576973228909</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2756458775875414</v>
+        <v>0.3150314186859979</v>
       </c>
     </row>
     <row r="7">
@@ -813,7 +813,7 @@
         <v>0.4261398812217183</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3124799025978553</v>
+        <v>0.3124799025978554</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3466836760716737</v>
@@ -825,7 +825,7 @@
         <v>0.4391790442039884</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3057770842219301</v>
+        <v>0.3057770842219302</v>
       </c>
     </row>
     <row r="8">
@@ -842,34 +842,34 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1290558661930797</v>
+        <v>0.1371228072346822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07077840181560029</v>
+        <v>0.07094259115618325</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1497739980087759</v>
+        <v>0.1390090646563861</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2832896472397388</v>
+        <v>0.2838632395642157</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1604361801813596</v>
+        <v>0.1603578516762586</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2047093253513679</v>
+        <v>0.2063046229205128</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1538617943521961</v>
+        <v>0.1528760459881449</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2099125516399837</v>
+        <v>0.2225165731967652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2153360387461801</v>
+        <v>0.2437066220954358</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2088881971285948</v>
+        <v>0.2024880229635328</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7355005856890742</v>
+        <v>0.7250211599916633</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4182889097877985</v>
+        <v>0.4462097150189697</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8633311906449168</v>
+        <v>0.8553712246052811</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5672928854997488</v>
+        <v>0.5725884516930029</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6766394758652844</v>
+        <v>0.6269904703615183</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6222959592645053</v>
+        <v>0.6398718767724664</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7065917181659139</v>
+        <v>0.7202240106261958</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4295800197536829</v>
+        <v>0.4401945459800905</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5687147455210788</v>
+        <v>0.5862068764176535</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5242272433354167</v>
+        <v>0.5092694683338795</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6942573885812836</v>
+        <v>0.6942682183676796</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4107745427846066</v>
+        <v>0.4109411765230526</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.2624300196013196</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09814153189054635</v>
+        <v>0.09814153189054636</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5482552427309585</v>
@@ -981,31 +981,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02726897538140968</v>
+        <v>0.02770071771060782</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2414124056009056</v>
+        <v>0.2622745983337016</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05680367453603194</v>
+        <v>0.0567963609323818</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.106307030440915</v>
+        <v>0.1158697478201312</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1692905925310288</v>
+        <v>0.1688496672044711</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2214716060572493</v>
+        <v>0.2650237934040065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07102504527192363</v>
+        <v>0.06930037394351084</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1473753686026894</v>
+        <v>0.1391797589602067</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1329889846397136</v>
+        <v>0.1373879142493501</v>
       </c>
     </row>
     <row r="12">
@@ -1019,37 +1019,37 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5690484243547089</v>
+        <v>0.4959284126044725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7043815378462711</v>
+        <v>0.669933683491343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2674009154508049</v>
+        <v>0.27014793455386</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8187026005482028</v>
+        <v>0.8149146542145105</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4529470149198818</v>
+        <v>0.451574981496042</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7807962502490035</v>
+        <v>0.8666476261179153</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3721508240947721</v>
+        <v>0.3776576761511538</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.750995492195436</v>
+        <v>0.7764838328222351</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3819593502260877</v>
+        <v>0.3841123527798929</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6567518110038487</v>
+        <v>0.653605743492304</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2934008685933003</v>
+        <v>0.2911400169739047</v>
       </c>
     </row>
     <row r="13">
@@ -1121,25 +1121,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0913792582507042</v>
+        <v>0.09138198368492291</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04672962283707899</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03851057144341908</v>
+        <v>0.03789566695243345</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07295583603029115</v>
+        <v>0.07877849049953116</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09071820937029014</v>
+        <v>0.07516860785908276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06225536136110616</v>
+        <v>0.06471490412497803</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02458081510912542</v>
+        <v>0.01537981639011764</v>
       </c>
     </row>
     <row r="15">
@@ -1153,35 +1153,35 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6074472592062992</v>
+        <v>0.4948298005925082</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4882278615965083</v>
+        <v>0.4926051585114563</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>0.5981044746971753</v>
+        <v>0.5186435506220736</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4324218741261187</v>
+        <v>0.4750500397938714</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3624899177237014</v>
+        <v>0.3659576021454018</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2197784562479378</v>
+        <v>0.2199038745701651</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5892906702475182</v>
+        <v>0.5916864236927517</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3807296100016072</v>
+        <v>0.3755138923156895</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3567672357765567</v>
+        <v>0.3589269760859454</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1524750314560009</v>
+        <v>0.1431820608148471</v>
       </c>
     </row>
     <row r="16">
@@ -1248,28 +1248,28 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1319863098666708</v>
+        <v>0.133373565488406</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2040847166666022</v>
+        <v>0.2038357305520375</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06468327833346506</v>
+        <v>0.06543929809400174</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0941930674472114</v>
+        <v>0.09229071810132453</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2320637400053559</v>
+        <v>0.1986797254638936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06260518433635541</v>
+        <v>0.06070638868953173</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06272549930635531</v>
+        <v>0.05897842506736831</v>
       </c>
     </row>
     <row r="18">
@@ -1281,35 +1281,35 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.8267006521646586</v>
+        <v>0.8272590051838243</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.2559021760876659</v>
+        <v>0.2692101016230534</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8749132199650186</v>
+        <v>0.8765255512886834</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6363753102876765</v>
+        <v>0.6408665433126702</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4695823127699866</v>
+        <v>0.4817960493453585</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2929113159007573</v>
+        <v>0.2856230032579694</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6650000726010835</v>
+        <v>0.6653142010772084</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6055098096810702</v>
+        <v>0.5961221583282585</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.538809746026005</v>
+        <v>0.5588446414549066</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2348328018825002</v>
+        <v>0.2331801091306695</v>
       </c>
     </row>
     <row r="19">
@@ -1374,34 +1374,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07041264345114738</v>
+        <v>0.07144879000553536</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02748094482019639</v>
+        <v>0.02544675777952624</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1350380860916708</v>
+        <v>0.1363180978420495</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05384034096224447</v>
+        <v>0.05343627433905915</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1043628487157312</v>
+        <v>0.1105248053473362</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0660002719942</v>
+        <v>0.0591892078859714</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2446123468339804</v>
+        <v>0.1882774542681502</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03502348743302917</v>
+        <v>0.03525934893901118</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1099244166590194</v>
+        <v>0.1183814959752316</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07272368449103905</v>
+        <v>0.0654962398321404</v>
       </c>
     </row>
     <row r="21">
@@ -1415,37 +1415,37 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3906775298593948</v>
+        <v>0.3915295244300472</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5113505690747967</v>
+        <v>0.5253431659792889</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2428768866906391</v>
+        <v>0.2354520276881867</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8124791216193998</v>
+        <v>0.8129366152293763</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3775168138550166</v>
+        <v>0.3765040387985638</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5226618403727573</v>
+        <v>0.5464906358120765</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1981002995072502</v>
+        <v>0.1988092060729165</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8040462696402043</v>
+        <v>0.7806135732579341</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3132012511810396</v>
+        <v>0.3084344264660089</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4481861583585284</v>
+        <v>0.467130349252547</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1836648904256861</v>
+        <v>0.1792023296268365</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.2683226545851808</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1932836473042149</v>
+        <v>0.1932836473042148</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3232673806754472</v>
@@ -1493,7 +1493,7 @@
         <v>0.1990486639148268</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1775911483908597</v>
+        <v>0.1775911483908598</v>
       </c>
     </row>
     <row r="23">
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06174794195019737</v>
+        <v>0.06289960220483769</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
@@ -1519,25 +1519,25 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1185001880428534</v>
+        <v>0.1156260805096074</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1453687452549609</v>
+        <v>0.1414785217637153</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1051328838585184</v>
+        <v>0.1156812651446044</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1008050260103691</v>
+        <v>0.1004865176394051</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.148114113686157</v>
+        <v>0.13779902478659</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1114423327294265</v>
+        <v>0.1047456418635543</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.104543120501419</v>
+        <v>0.1067085160025284</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6944887140833894</v>
+        <v>0.6945915030065487</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5756068986540448</v>
+        <v>0.6019259521714506</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2486837112175942</v>
+        <v>0.2459435122665045</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3690910356210958</v>
+        <v>0.3737114218640459</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4274596118873853</v>
+        <v>0.4448173912236373</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4347227908288065</v>
+        <v>0.4543887778215467</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2955137539350048</v>
+        <v>0.2968558811886393</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6414324942935539</v>
+        <v>0.6489902919081306</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4443107370477299</v>
+        <v>0.4170286153959995</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3327863530339013</v>
+        <v>0.3227043805352088</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2636788380643957</v>
+        <v>0.2750181981010416</v>
       </c>
     </row>
     <row r="25">
@@ -1605,7 +1605,7 @@
         <v>0.08889621576850476</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1999601862289195</v>
+        <v>0.1999601862289196</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.3720114792241249</v>
@@ -1617,7 +1617,7 @@
         <v>0.3270431320814723</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2453743373290555</v>
+        <v>0.2453743373290554</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2650460698052456</v>
@@ -1643,37 +1643,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1343860153001102</v>
+        <v>0.1334890559780591</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08485900414867543</v>
+        <v>0.08483372984455657</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.208816103436174</v>
+        <v>0.187870835162088</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1093969387866837</v>
+        <v>0.136168601158225</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1436615115133183</v>
+        <v>0.1436230729350553</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1747582961754876</v>
+        <v>0.1742841627954961</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1392591715152141</v>
+        <v>0.1392569736679404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1664353353378768</v>
+        <v>0.1683832128585988</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1159133178780891</v>
+        <v>0.1144477219185444</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1681852002548748</v>
+        <v>0.1648201496727715</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2988964756337777</v>
+        <v>0.3385406557112737</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8887530699519631</v>
+        <v>0.8843102911868527</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4180721523118962</v>
+        <v>0.4041375410376447</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3720978180738407</v>
+        <v>0.371152719312502</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5746321920103242</v>
+        <v>0.5878854327895157</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4640962257747786</v>
+        <v>0.4392689342301348</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5876979640466597</v>
+        <v>0.5497955097531695</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.342202558306474</v>
+        <v>0.3330541192970741</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4131420291915529</v>
+        <v>0.4041503325540113</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4735720947488486</v>
+        <v>0.490528777024882</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4697292325231533</v>
+        <v>0.4324146366399422</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3054825745884256</v>
+        <v>0.3076549958955874</v>
       </c>
     </row>
     <row r="28">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.09844676631778938</v>
+        <v>0.09480373329484705</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.09777428333103966</v>
+        <v>0.09320659861745327</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.08353435566703295</v>
+        <v>0.08290542847681764</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2959315173124372</v>
+        <v>0.3027237021004471</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.22255263345774</v>
+        <v>0.2216274178866032</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1954324231674708</v>
+        <v>0.1961612327216811</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.178320164640191</v>
+        <v>0.1783239936223067</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2554268571411798</v>
+        <v>0.2623134259988304</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2096272009342411</v>
+        <v>0.1994443833652634</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1816392846346663</v>
+        <v>0.1856763357868216</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1602787391689296</v>
+        <v>0.1623958438889028</v>
       </c>
     </row>
     <row r="30">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3096148076528548</v>
+        <v>0.3114035883141558</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.255919693960519</v>
+        <v>0.2595641778039472</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1940280290671074</v>
+        <v>0.1985000221308302</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5166193847950123</v>
+        <v>0.5175656552115371</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3503392074315798</v>
+        <v>0.3512356194337084</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3463067082633674</v>
+        <v>0.345964621177146</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2540310172867332</v>
+        <v>0.2547204701340161</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4180973500479824</v>
+        <v>0.4110581089986466</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3225555577086267</v>
+        <v>0.3167780401586638</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2983292747417945</v>
+        <v>0.2998117437841211</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2272286635536672</v>
+        <v>0.2253268662920381</v>
       </c>
     </row>
     <row r="31">
@@ -2139,25 +2139,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1178</v>
+        <v>1151</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
@@ -2169,35 +2169,35 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4109</v>
+        <v>4115</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3888</v>
+        <v>3361</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
         <v>2400</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7971</v>
+        <v>8930</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7167</v>
+        <v>6575</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3723</v>
+        <v>3559</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3803</v>
+        <v>4117</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9020</v>
+        <v>9888</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7663</v>
+        <v>7549</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>3782</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="8">
@@ -2306,34 +2306,34 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>708</v>
+        <v>752</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2203</v>
+        <v>2045</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10456</v>
+        <v>10477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9153</v>
+        <v>9225</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3322</v>
+        <v>3300</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10206</v>
+        <v>10819</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5018</v>
+        <v>5679</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12072</v>
+        <v>11702</v>
       </c>
     </row>
     <row r="11">
@@ -2344,40 +2344,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5060</v>
+        <v>4988</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4898</v>
+        <v>5225</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4735</v>
+        <v>4692</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7419</v>
+        <v>7488</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9952</v>
+        <v>9222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22969</v>
+        <v>23618</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12591</v>
+        <v>12834</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19208</v>
+        <v>19683</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12277</v>
+        <v>12655</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>25487</v>
+        <v>24760</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16178</v>
+        <v>16179</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23740</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="12">
@@ -2489,31 +2489,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2958</v>
+        <v>3214</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>1094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1145</v>
+        <v>1248</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5679</v>
+        <v>5664</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3363</v>
+        <v>4025</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2026</v>
+        <v>1977</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2474</v>
+        <v>2336</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6838</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="15">
@@ -2527,37 +2527,37 @@
         <v>2934</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5273</v>
+        <v>4596</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4234</v>
+        <v>4027</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4779</v>
+        <v>4828</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10032</v>
+        <v>9986</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8722</v>
+        <v>8696</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8412</v>
+        <v>9337</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12483</v>
+        <v>12668</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11405</v>
+        <v>11792</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>10895</v>
+        <v>10956</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11024</v>
+        <v>10971</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>15086</v>
+        <v>14970</v>
       </c>
     </row>
     <row r="16">
@@ -2676,22 +2676,22 @@
         <v>2052</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>977</v>
+        <v>1055</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2825</v>
+        <v>2341</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2175</v>
+        <v>2260</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>746</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19">
@@ -2705,35 +2705,35 @@
         <v>2580</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5276</v>
+        <v>4298</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4885</v>
+        <v>4929</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="n">
-        <v>6468</v>
+        <v>5609</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9710</v>
+        <v>10667</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9035</v>
+        <v>9121</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4576</v>
+        <v>4579</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7893</v>
+        <v>7925</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>11856</v>
+        <v>11694</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>12462</v>
+        <v>12537</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>4626</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="20">
@@ -2844,28 +2844,28 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1179</v>
+        <v>1192</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1114</v>
+        <v>1127</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1245</v>
+        <v>1220</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6128</v>
+        <v>5246</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>808</v>
+        <v>784</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1561</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="23">
@@ -2877,35 +2877,35 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>5544</v>
+        <v>5548</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>1965</v>
+        <v>2067</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7818</v>
+        <v>7833</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12536</v>
+        <v>12624</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5689</v>
+        <v>5836</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5043</v>
+        <v>4917</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8789</v>
+        <v>8793</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>15988</v>
+        <v>15741</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6958</v>
+        <v>7216</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5846</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="24">
@@ -3014,34 +3014,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1424</v>
+        <v>1438</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2307</v>
+        <v>2443</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2148</v>
+        <v>1927</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3482</v>
+        <v>2680</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>3618</v>
+        <v>3897</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3571</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="27">
@@ -3055,37 +3055,37 @@
         <v>3687</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4161</v>
+        <v>4170</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5529</v>
+        <v>5680</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4021</v>
+        <v>3898</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8570</v>
+        <v>8575</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7624</v>
+        <v>7603</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11553</v>
+        <v>12080</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6448</v>
+        <v>6471</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11446</v>
+        <v>11112</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>9661</v>
+        <v>9514</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14753</v>
+        <v>15377</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9019</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="28">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
@@ -3203,25 +3203,25 @@
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4198</v>
+        <v>4097</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6237</v>
+        <v>6070</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5428</v>
+        <v>5973</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>7551</v>
+        <v>7025</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>7004</v>
+        <v>6583</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>6956</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="31">
@@ -3232,40 +3232,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>8951</v>
+        <v>9361</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4961</v>
+        <v>4906</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5503</v>
+        <v>5572</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>3953</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>15144</v>
+        <v>15759</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>18650</v>
+        <v>19494</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>15258</v>
+        <v>15327</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5863</v>
+        <v>5932</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>22651</v>
+        <v>21260</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>20916</v>
+        <v>20282</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>17545</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="32">
@@ -3371,37 +3371,37 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>6250</v>
+        <v>5623</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3289</v>
+        <v>4094</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>11621</v>
+        <v>11589</v>
       </c>
       <c r="K34" s="6" t="n">
         <v>6844</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>6482</v>
+        <v>6558</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>3694</v>
+        <v>3647</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>15169</v>
+        <v>14866</v>
       </c>
     </row>
     <row r="35">
@@ -3412,40 +3412,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>5742</v>
+        <v>6504</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>7897</v>
+        <v>7858</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3806</v>
+        <v>3679</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8818</v>
+        <v>8796</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>17200</v>
+        <v>17597</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>13952</v>
+        <v>13206</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>13376</v>
+        <v>12513</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>22755</v>
+        <v>22147</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>20303</v>
+        <v>19862</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>18445</v>
+        <v>19106</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>14968</v>
+        <v>13779</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>27553</v>
+        <v>27749</v>
       </c>
     </row>
     <row r="36">
@@ -3548,40 +3548,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>4753</v>
+        <v>4577</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>7049</v>
+        <v>6720</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>9070</v>
+        <v>9002</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>27683</v>
+        <v>28318</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>45678</v>
+        <v>45488</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>33573</v>
+        <v>33698</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>49115</v>
+        <v>49116</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>36226</v>
+        <v>37203</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>59482</v>
+        <v>56592</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>44299</v>
+        <v>45284</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>61548</v>
+        <v>62361</v>
       </c>
     </row>
     <row r="39">
@@ -3592,40 +3592,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>14949</v>
+        <v>15035</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>18451</v>
+        <v>18714</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>21067</v>
+        <v>21552</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>48327</v>
+        <v>48416</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>71905</v>
+        <v>72089</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>59491</v>
+        <v>59433</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>69968</v>
+        <v>70157</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>59297</v>
+        <v>58298</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>91525</v>
+        <v>89886</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>72758</v>
+        <v>73120</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>87257</v>
+        <v>86527</v>
       </c>
     </row>
     <row r="40">
